--- a/API_project/report/Excel/参展信息3.xlsx
+++ b/API_project/report/Excel/参展信息3.xlsx
@@ -19,6 +19,9 @@
     <sheet name="2022年02月24日20时11分" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="2022年02月24日20时22分" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="2022年02月24日21时49分" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="2022年03月09日11时12分" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="2022年03月09日11时30分" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="2022年03月09日11时34分" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1604,6 +1607,921 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>断言字段</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>测试数据</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>断言字段</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>测试数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>a70bb3355db8ade5ce995e289e038161</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>tradeShowStartDate</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ES没有详情页有</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'2011-03-09'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>a70bb3355db8ade5ce995e289e038161</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>tradeShowStartDate</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ES有详情页没有</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'2009-11-03'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>a70bb3355db8ade5ce995e289e038161</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>tradeShowName</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>详情页有ES没有</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'2011中国广州国际工业自动化技术及装备展览会'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>a70bb3355db8ade5ce995e289e038161</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>tradeShowName</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ES有详情页没有</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'2009中国国际工业博览会航空航天技术展'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>498941bd2c4cbd623f62bca37c4a55c3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>tradeShowStartDate</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ES没有详情页有</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{'2010-10-30'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>498941bd2c4cbd623f62bca37c4a55c3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>tradeShowStartDate</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ES有详情页没有</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{'2009-04-15'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>498941bd2c4cbd623f62bca37c4a55c3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>tradeShowName</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>详情页有ES没有</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{'建议参加 行业内品牌展会 2010第十四届中国国际宠物水族用品展览会'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>498941bd2c4cbd623f62bca37c4a55c3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>tradeShowName</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ES有详情页没有</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{'2009第105届中国进出口商品交易会（第一期）'}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>断言字段</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>测试数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>217dfba3f5c7ebfd9f07957f9c8d38b3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>tradeShowStartDate</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ES没有详情页有</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'2010-10-27'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>217dfba3f5c7ebfd9f07957f9c8d38b3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>tradeShowStartDate</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ES有详情页没有</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'2010-03-02'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>217dfba3f5c7ebfd9f07957f9c8d38b3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>tradeShowName</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>详情页有ES没有</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'建议参加 行业内品牌展会 2010年北京国际光电产业博览会暨第十五届中国国际激光、光电子及光电显示产品展览会'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>217dfba3f5c7ebfd9f07957f9c8d38b3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>tradeShowName</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ES有详情页没有</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'2010广东国际广告展'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>31266c0f16de36ac31a00070c1ed6cd2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>tradeShowStartDate</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ES没有详情页有</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{'2010-04-18'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>31266c0f16de36ac31a00070c1ed6cd2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>tradeShowStartDate</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ES有详情页没有</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{'2009-07-02'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>31266c0f16de36ac31a00070c1ed6cd2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>tradeShowName</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>详情页有ES没有</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{'建议参加 好展会认证展会 2010第63届中国国际医疗器械博览会'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>31266c0f16de36ac31a00070c1ed6cd2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>tradeShowName</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ES有详情页没有</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{'2009第六届中国(重庆）西部国际医疗器械展览会 西部国际口腔器材展览会及学术交流会'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>c7c02f7321dda27b74311b7b1019ee10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>tradeShowStartDate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ES没有详情页有</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>{'2011-04-27'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>c7c02f7321dda27b74311b7b1019ee10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>tradeShowStartDate</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ES有详情页没有</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>{'2012-04-19'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>c7c02f7321dda27b74311b7b1019ee10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>tradeShowName</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>详情页有ES没有</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{'2011第八届中国国际食品加工与包装设备（青岛）展览会'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>c7c02f7321dda27b74311b7b1019ee10</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>tradeShowName</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ES有详情页没有</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>{'2012第四届中国（上海）大豆加工技术与设备展暨农产品加工技术展览会'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3420faf856471b6d069cf3d17161223f</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>tradeShowStartDate</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ES没有详情页有</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>{'2009-10-23'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3420faf856471b6d069cf3d17161223f</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>tradeShowStartDate</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ES有详情页没有</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>{'2009-06-23'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3420faf856471b6d069cf3d17161223f</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>tradeShowName</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>详情页有ES没有</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>{'建议参加 行业内品牌展会 第106届中国进出口商品交易会（第二期）'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3420faf856471b6d069cf3d17161223f</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>tradeShowName</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ES有详情页没有</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>{'建议参加 好展会认证展会 2009世界制药机械、包装设备与材料中国展'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>537332a4241300c8f1564cb282e567b5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>tradeShowStartDate</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ES没有详情页有</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>{'2010-11-17'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>537332a4241300c8f1564cb282e567b5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>tradeShowStartDate</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ES有详情页没有</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>{'2010-11-29'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>537332a4241300c8f1564cb282e567b5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>tradeShowName</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>详情页有ES没有</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>{'建议参加 行业内品牌展会 2010第十二届东莞模具及金属加工展第十二届东莞国际橡塑胶及包装展'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>537332a4241300c8f1564cb282e567b5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>tradeShowName</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ES有详情页没有</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>{'2010第九届中国国际内燃机及零部件展览会'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>6ef1afa1b775a2bbbb6ffc4a3bdab76d</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>tradeShowStartDate</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ES没有详情页有</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>{'2010-05-11'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>6ef1afa1b775a2bbbb6ffc4a3bdab76d</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>tradeShowStartDate</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ES有详情页没有</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>{'2009-09-01'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>6ef1afa1b775a2bbbb6ffc4a3bdab76d</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>tradeShowName</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>详情页有ES没有</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>{'建议参加 好展会认证展会 2010第十三届中国国际模具技术和设备展览会'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>6ef1afa1b775a2bbbb6ffc4a3bdab76d</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>tradeShowName</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ES有详情页没有</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>{'建议参加 行业内品牌展会 2009中国国际铸件博览会 第七届中国国际有色及特种铸造展览会'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1a9cb752463c25ea942a0158de183169</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>tradeShowStartDate</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ES没有详情页有</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>{'2009-04-15'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1a9cb752463c25ea942a0158de183169</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>tradeShowStartDate</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ES有详情页没有</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>{'2009-10-31'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1a9cb752463c25ea942a0158de183169</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>tradeShowName</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>详情页有ES没有</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>{'2009第105届中国进出口商品交易会（第一期）'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1a9cb752463c25ea942a0158de183169</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>tradeShowName</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ES有详情页没有</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>{'建议参加 行业内品牌展会 2009第106届中国进出口商品交易会（第三期）'}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
